--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,75 +40,78 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>hate</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,25 +136,25 @@
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
+    <t>first</t>
   </si>
   <si>
     <t>worth</t>
@@ -160,55 +163,43 @@
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -572,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -691,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -741,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.8666666666666667</v>
@@ -841,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,16 +903,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7222222222222222</v>
+        <v>0.68</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.775</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.7192982456140351</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7692307692307693</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,16 +1003,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.6923076923076923</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.68</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,31 +1100,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.631578947368421</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>12</v>
-      </c>
-      <c r="M12">
-        <v>12</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6571428571428571</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.5555555555555556</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.6159420289855072</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>0.4722222222222222</v>
@@ -1291,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.4166666666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.3636363636363636</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.2714025500910747</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L18">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>800</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5957446808510638</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.2542372881355932</v>
+        <v>0.2695810564663024</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5882352941176471</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.2195121951219512</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>0.2112676056338028</v>
-      </c>
-      <c r="L21">
-        <v>15</v>
-      </c>
       <c r="M21">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1582,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.2</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,7 +1632,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -1659,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.1967213114754098</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,13 +1682,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1709,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.1666666666666667</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L24">
         <v>9</v>
@@ -1733,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,13 +1732,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3333333333333333</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1759,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.1506849315068493</v>
+        <v>0.05572289156626506</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>62</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1791,13 +1782,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1666666666666667</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1809,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.1368421052631579</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1833,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,63 +1832,87 @@
         <v>32</v>
       </c>
       <c r="B27">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>62</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="L27">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>0.04026845637583892</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>12</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>0.08</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.92</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>286</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.1058823529411765</v>
-      </c>
-      <c r="L27">
-        <v>9</v>
-      </c>
-      <c r="M27">
-        <v>9</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.05653710247349823</v>
+        <v>0.04058441558441558</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1909,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>267</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.04969879518072289</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1935,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>631</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.04814814814814815</v>
+        <v>0.02649769585253456</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1961,111 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31">
-        <v>0.04105571847507331</v>
-      </c>
-      <c r="L31">
-        <v>14</v>
-      </c>
-      <c r="M31">
-        <v>14</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="L32">
-        <v>24</v>
-      </c>
-      <c r="M32">
-        <v>24</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33">
-        <v>0.03201024327784891</v>
-      </c>
-      <c r="L33">
-        <v>25</v>
-      </c>
-      <c r="M33">
-        <v>25</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34">
-        <v>0.02534562211981567</v>
-      </c>
-      <c r="L34">
-        <v>44</v>
-      </c>
-      <c r="M34">
-        <v>44</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
